--- a/303-exemple---création-dun-exemple-de-cas-dusage-ssiad/ig/StructureDefinition-tddui-human-name.xlsx
+++ b/303-exemple---création-dun-exemple-de-cas-dusage-ssiad/ig/StructureDefinition-tddui-human-name.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:44:20+00:00</t>
+    <t>2025-07-28T14:45:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/303-exemple---création-dun-exemple-de-cas-dusage-ssiad/ig/StructureDefinition-tddui-human-name.xlsx
+++ b/303-exemple---création-dun-exemple-de-cas-dusage-ssiad/ig/StructureDefinition-tddui-human-name.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:45:11+00:00</t>
+    <t>2025-07-29T07:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/303-exemple---création-dun-exemple-de-cas-dusage-ssiad/ig/StructureDefinition-tddui-human-name.xlsx
+++ b/303-exemple---création-dun-exemple-de-cas-dusage-ssiad/ig/StructureDefinition-tddui-human-name.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T07:14:57+00:00</t>
+    <t>2025-07-29T12:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
